--- a/自己申请/【空表】网申管理表-教程.xlsx
+++ b/自己申请/【空表】网申管理表-教程.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2122F80A-B296-9948-8549-4FDA6B8B85FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C6D343-66BF-F043-B34E-C00B155EB380}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="156">
   <si>
     <t>账号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -209,10 +209,6 @@
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>同一个学院下的不同项目名字可能会很像，请留意项目名字、BS或MS或PHD等等</t>
@@ -268,28 +264,7 @@
     <t>UBC</t>
   </si>
   <si>
-    <t>SFU</t>
-  </si>
-  <si>
-    <t>NTU</t>
-  </si>
-  <si>
     <t>NUS</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
   </si>
   <si>
     <t>KTH</t>
@@ -399,30 +374,6 @@
     <t>学费</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>Computer Science</t>
   </si>
   <si>
@@ -570,6 +521,150 @@
   </si>
   <si>
     <t>https://choose.illinois.edu/account/login?r=https%3a%2f%2fchoose.illinois.edu%2fapply%2f</t>
+  </si>
+  <si>
+    <t>0935</t>
+  </si>
+  <si>
+    <t>https://www.cs.mcgill.ca/academic/graduate/masters/</t>
+  </si>
+  <si>
+    <t>https://www.cs.mcgill.ca/academic/graduate/faq/</t>
+  </si>
+  <si>
+    <t>https://www.cs.mcgill.ca/academic/graduate/admission/</t>
+  </si>
+  <si>
+    <t>$120.99 CAD</t>
+  </si>
+  <si>
+    <t>https://cas.mcgill.ca/cas/login?locale=en&amp;service=https%3A%2F%2Fnimbus.mcgill.ca%2FuApply%2Fj_spring_cas_security_check%3Flang%3Den</t>
+  </si>
+  <si>
+    <t>Master of Science (M.Sc.) Computer Science (Non-Thesis)</t>
+  </si>
+  <si>
+    <t>2021 Jan 01 23:59 EST</t>
+  </si>
+  <si>
+    <r>
+      <t>APPLICATION DEADLINE: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15 December 2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>; TRANSCRIPT DEADLINE: 16 December 2020
+; REFEREE DEADLINE: 06 January 2021</t>
+    </r>
+  </si>
+  <si>
+    <t>https://cas.id.ubc.ca/ubc-cas/login?service=https%3a%2f%2fevision.as.it.ubc.ca%2furd%2fsits.urd%2frun%2fsiw_sso.ipptoken%3fprocess%3dsiw_ipp_app%26code1%3dVGMMSC-FM%26code2%3d0031</t>
+  </si>
+  <si>
+    <t>https://www.cs.ubc.ca/students/grad/policies/grad-handbook/msc-program-toc/msc-program/12-credit-msc-thesis-thesis-masters</t>
+  </si>
+  <si>
+    <t>https://www.cs.ubc.ca/students/grad/admissions/application-components-required-documents</t>
+  </si>
+  <si>
+    <t>https://www.cs.ubc.ca/students/grad/admissions</t>
+  </si>
+  <si>
+    <t>$168.25 CDN</t>
+  </si>
+  <si>
+    <t>0965</t>
+  </si>
+  <si>
+    <t>MASTER OF SCIENCE IN COMPUTER SCIENCE (MSC) Master's Essay</t>
+  </si>
+  <si>
+    <t>https://www.comp.nus.edu.sg/programmes/pg/mcs/</t>
+  </si>
+  <si>
+    <t>15 March 2021</t>
+  </si>
+  <si>
+    <t>9088</t>
+  </si>
+  <si>
+    <t>institution code 0677, Department Code 0402/ 0404</t>
+  </si>
+  <si>
+    <t>https://www.comp.nus.edu.sg/programmes/pg/mcs/admissions/</t>
+  </si>
+  <si>
+    <t>https://www.comp.nus.edu.sg/programmes/pg/mcs/faq/</t>
+  </si>
+  <si>
+    <t>Master of Computing - Computer Science Specialisation (Mcomp)</t>
+  </si>
+  <si>
+    <t>https://inetapps.nus.edu.sg/GDA2/Home.aspx</t>
+  </si>
+  <si>
+    <t>S$50</t>
+  </si>
+  <si>
+    <t>https://www.kth.se/en/studies/master/computer-science</t>
+  </si>
+  <si>
+    <t>MSc Computer Science</t>
+  </si>
+  <si>
+    <t>15 January 2021</t>
+  </si>
+  <si>
+    <t>SEK 900</t>
+  </si>
+  <si>
+    <t>https://www.universityadmissions.se/intl/login</t>
+  </si>
+  <si>
+    <t>https://inf.ethz.ch/studies/master/master-cs-2020.html</t>
+  </si>
+  <si>
+    <t>https://inf.ethz.ch/studies/master/application_admission.html</t>
+  </si>
+  <si>
+    <t>ETS TOEFL Institution Code for ETH Zurich: 9038</t>
+  </si>
+  <si>
+    <t>Master in Computer Science (MSc Computer Science)</t>
+  </si>
+  <si>
+    <t>https://www.lehrbetrieb.ethz.ch/eApply/ealogin.view</t>
+  </si>
+  <si>
+    <t>15 November 2020 ~ 15 December 2020 CET</t>
+  </si>
+  <si>
+    <t>3331</t>
+  </si>
+  <si>
+    <t>150 CHF</t>
+  </si>
+  <si>
+    <t>https://ethz.ch/en/studies/master/application/faq.html#fee</t>
+  </si>
+  <si>
+    <t>https://www.kth.se/en/studies/master/thrust/faq-1.46449</t>
   </si>
 </sst>
 </file>
@@ -873,7 +968,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -996,6 +1091,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1005,7 +1109,188 @@
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规 2 2 8" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="69">
+  <dxfs count="88">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.79982909634693444"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79982909634693444"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="3" tint="0.79982909634693444"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.79982909634693444"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2008,11 +2293,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG15"/>
+  <dimension ref="A1:AG14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5"/>
+      <selection pane="topRight" activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -2083,10 +2368,10 @@
         <v>20</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>7</v>
@@ -2150,54 +2435,54 @@
       </c>
     </row>
     <row r="2" spans="1:33" ht="153" customHeight="1">
-      <c r="A2" s="16" t="s">
-        <v>50</v>
+      <c r="A2" s="41">
+        <v>1</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="23" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="38" t="s">
         <v>57</v>
-      </c>
-      <c r="J2" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="38" t="s">
-        <v>58</v>
       </c>
       <c r="L2" s="34"/>
       <c r="M2" s="34"/>
       <c r="N2" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q2" s="18" t="s">
+      <c r="R2" s="38" t="s">
         <v>54</v>
-      </c>
-      <c r="R2" s="38" t="s">
-        <v>55</v>
       </c>
       <c r="S2" s="19"/>
       <c r="T2" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="U2" s="20" t="s">
         <v>55</v>
-      </c>
-      <c r="U2" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="V2" s="21" t="s">
         <v>13</v>
@@ -2206,7 +2491,7 @@
         <v>13</v>
       </c>
       <c r="X2" s="19" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="Y2" s="22" t="s">
         <v>26</v>
@@ -2229,46 +2514,46 @@
       <c r="AG2" s="19"/>
     </row>
     <row r="3" spans="1:33" ht="156" customHeight="1">
-      <c r="A3" s="16" t="s">
-        <v>83</v>
+      <c r="A3" s="41">
+        <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>121</v>
-      </c>
       <c r="E3" s="4" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J3" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K3" s="19"/>
       <c r="L3" s="19" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="M3" s="19"/>
       <c r="N3" s="19" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="P3" s="19"/>
       <c r="Q3" s="38"/>
@@ -2304,46 +2589,46 @@
       <c r="AG3" s="19"/>
     </row>
     <row r="4" spans="1:33" ht="82" customHeight="1">
-      <c r="A4" s="16" t="s">
-        <v>84</v>
+      <c r="A4" s="41">
+        <v>4</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K4" s="19"/>
       <c r="L4" s="19" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="M4" s="19"/>
       <c r="N4" s="19" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="O4" s="19" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="P4" s="19"/>
       <c r="Q4" s="38"/>
@@ -2379,46 +2664,46 @@
       <c r="AG4" s="19"/>
     </row>
     <row r="5" spans="1:33" ht="143" customHeight="1">
-      <c r="A5" s="16" t="s">
-        <v>85</v>
+      <c r="A5" s="41">
+        <v>5</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>123</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K5" s="19"/>
       <c r="L5" s="19" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="M5" s="19"/>
       <c r="N5" s="19" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="38"/>
@@ -2454,39 +2739,39 @@
       <c r="AG5" s="19"/>
     </row>
     <row r="6" spans="1:33" ht="80" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="41">
+        <v>6</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6" s="19"/>
       <c r="L6" s="19" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="39">
@@ -2529,39 +2814,39 @@
       <c r="AG6" s="19"/>
     </row>
     <row r="7" spans="1:33" ht="80" customHeight="1">
-      <c r="A7" s="16" t="s">
-        <v>87</v>
+      <c r="A7" s="41">
+        <v>7</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J7" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K7" s="19"/>
       <c r="L7" s="19" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="M7" s="19"/>
       <c r="N7" s="40">
@@ -2604,29 +2889,47 @@
       <c r="AG7" s="19"/>
     </row>
     <row r="8" spans="1:33" ht="80" customHeight="1">
-      <c r="A8" s="16" t="s">
-        <v>88</v>
+      <c r="A8" s="41">
+        <v>8</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="23"/>
+        <v>62</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="I8" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J8" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="L8" s="19" t="s">
+        <v>120</v>
+      </c>
       <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
+      <c r="N8" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>116</v>
+      </c>
       <c r="P8" s="19"/>
       <c r="Q8" s="38"/>
       <c r="R8" s="19"/>
@@ -2661,29 +2964,47 @@
       <c r="AG8" s="19"/>
     </row>
     <row r="9" spans="1:33" ht="80" customHeight="1">
-      <c r="A9" s="16" t="s">
-        <v>89</v>
+      <c r="A9" s="41">
+        <v>9</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="23"/>
+        <v>63</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="I9" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="L9" s="19" t="s">
+        <v>129</v>
+      </c>
       <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
+      <c r="N9" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>130</v>
+      </c>
       <c r="P9" s="38"/>
       <c r="Q9" s="38"/>
       <c r="R9" s="19"/>
@@ -2718,143 +3039,165 @@
       <c r="AG9" s="19"/>
     </row>
     <row r="10" spans="1:33" ht="80" customHeight="1">
-      <c r="A10" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="23"/>
+      <c r="A10" s="41">
+        <v>10</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="I10" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
+      <c r="L10" s="19" t="s">
+        <v>140</v>
+      </c>
       <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
+      <c r="N10" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>134</v>
+      </c>
       <c r="P10" s="19"/>
-      <c r="Q10" s="38"/>
+      <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="W10" s="21" t="s">
-        <v>13</v>
-      </c>
+      <c r="U10" s="20"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
       <c r="X10" s="19"/>
-      <c r="Y10" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z10" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA10" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB10" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC10" s="22" t="s">
-        <v>13</v>
-      </c>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="28"/>
+      <c r="AC10" s="28"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
     </row>
     <row r="11" spans="1:33" ht="80" customHeight="1">
-      <c r="A11" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="23"/>
+      <c r="A11" s="41">
+        <v>11</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="I11" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="L11" s="19" t="s">
+        <v>144</v>
+      </c>
       <c r="M11" s="19"/>
       <c r="N11" s="19"/>
       <c r="O11" s="19"/>
       <c r="P11" s="19"/>
-      <c r="Q11" s="38"/>
+      <c r="Q11" s="19"/>
       <c r="R11" s="19"/>
       <c r="S11" s="19"/>
       <c r="T11" s="19"/>
       <c r="U11" s="20"/>
-      <c r="V11" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="W11" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z11" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA11" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB11" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC11" s="22" t="s">
-        <v>13</v>
-      </c>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="28"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
     </row>
     <row r="12" spans="1:33" ht="80" customHeight="1">
-      <c r="A12" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="23"/>
+      <c r="A12" s="41">
+        <v>12</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="I12" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="L12" s="19" t="s">
+        <v>153</v>
+      </c>
       <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
+      <c r="N12" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>148</v>
+      </c>
       <c r="P12" s="19"/>
       <c r="Q12" s="19"/>
       <c r="R12" s="19"/>
@@ -2875,11 +3218,11 @@
       <c r="AG12" s="19"/>
     </row>
     <row r="13" spans="1:33" ht="80" customHeight="1">
-      <c r="A13" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>73</v>
+      <c r="A13" s="41">
+        <v>13</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="17"/>
@@ -2888,10 +3231,10 @@
       <c r="G13" s="26"/>
       <c r="H13" s="23"/>
       <c r="I13" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -2918,12 +3261,10 @@
       <c r="AG13" s="19"/>
     </row>
     <row r="14" spans="1:33" ht="80" customHeight="1">
-      <c r="A14" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>76</v>
-      </c>
+      <c r="A14" s="41">
+        <v>14</v>
+      </c>
+      <c r="B14" s="43"/>
       <c r="C14" s="25"/>
       <c r="D14" s="17"/>
       <c r="E14" s="26"/>
@@ -2931,10 +3272,10 @@
       <c r="G14" s="26"/>
       <c r="H14" s="23"/>
       <c r="I14" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
@@ -2960,312 +3301,338 @@
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
     </row>
-    <row r="15" spans="1:33" ht="80" customHeight="1">
-      <c r="A15" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="19"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="28"/>
-      <c r="AC15" s="28"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="19"/>
-      <c r="AF15" s="19"/>
-      <c r="AG15" s="19"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="V2:W13">
-    <cfRule type="containsText" dxfId="68" priority="112" operator="containsText" text="已撤回/放弃">
+  <conditionalFormatting sqref="V2:W11">
+    <cfRule type="containsText" dxfId="87" priority="150" operator="containsText" text="已撤回/放弃">
       <formula>NOT(ISERROR(SEARCH("已撤回/放弃",V2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="67" priority="113" operator="containsText" text="已拒绝">
+    <cfRule type="containsText" dxfId="86" priority="151" operator="containsText" text="已拒绝">
       <formula>NOT(ISERROR(SEARCH("已拒绝",V2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="114" operator="containsText" text="已录取">
+    <cfRule type="containsText" dxfId="85" priority="152" operator="containsText" text="已录取">
       <formula>NOT(ISERROR(SEARCH("已录取",V2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="115" operator="containsText" text="已完成未提交">
+    <cfRule type="containsText" dxfId="84" priority="153" operator="containsText" text="已完成未提交">
       <formula>NOT(ISERROR(SEARCH("已完成未提交",V2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="116" operator="containsText" text="已提交">
+    <cfRule type="containsText" dxfId="83" priority="154" operator="containsText" text="已提交">
       <formula>NOT(ISERROR(SEARCH("已提交",V2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="117" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="82" priority="155" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",V2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB11:AC13">
-    <cfRule type="containsText" dxfId="62" priority="97" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",AB11)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="98" operator="containsText" text="完成">
-      <formula>NOT(ISERROR(SEARCH("完成",AB11)))</formula>
+  <conditionalFormatting sqref="AB10:AC11">
+    <cfRule type="containsText" dxfId="81" priority="135" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",AB10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="136" operator="containsText" text="完成">
+      <formula>NOT(ISERROR(SEARCH("完成",AB10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB2:AC9">
+    <cfRule type="cellIs" dxfId="79" priority="117" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="118" operator="equal">
+      <formula>"完成"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="143" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",AB2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="76" priority="144" operator="containsText" text="完成">
+      <formula>NOT(ISERROR(SEARCH("完成",AB2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB5:AC6">
+    <cfRule type="containsText" dxfId="75" priority="145" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",AB5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="146" operator="containsText" text="完成">
+      <formula>NOT(ISERROR(SEARCH("完成",AB5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB7:AC7">
+    <cfRule type="containsText" dxfId="73" priority="141" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",AB7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="142" operator="containsText" text="完成">
+      <formula>NOT(ISERROR(SEARCH("完成",AB7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB8:AC8">
+    <cfRule type="containsText" dxfId="71" priority="139" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",AB8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="140" operator="containsText" text="完成">
+      <formula>NOT(ISERROR(SEARCH("完成",AB8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB9:AC9">
+    <cfRule type="containsText" dxfId="69" priority="137" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",AB9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="138" operator="containsText" text="完成">
+      <formula>NOT(ISERROR(SEARCH("完成",AB9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:AA11">
+    <cfRule type="cellIs" dxfId="67" priority="129" operator="equal">
+      <formula>"已提交"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="130" operator="equal">
+      <formula>"已发送"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="131" operator="equal">
+      <formula>"未发送"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="133" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",Y2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="134" operator="containsText" text="完成">
+      <formula>NOT(ISERROR(SEARCH("完成",Y2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB2:AC11">
-    <cfRule type="cellIs" dxfId="60" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="132" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="80" operator="equal">
-      <formula>"完成"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="105" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",AB2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="106" operator="containsText" text="完成">
-      <formula>NOT(ISERROR(SEARCH("完成",AB2)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB5:AC6">
-    <cfRule type="containsText" dxfId="56" priority="107" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",AB5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="108" operator="containsText" text="完成">
-      <formula>NOT(ISERROR(SEARCH("完成",AB5)))</formula>
+  <conditionalFormatting sqref="V2:V11">
+    <cfRule type="cellIs" dxfId="61" priority="122" operator="equal">
+      <formula>"已录取"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="128" operator="equal">
+      <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB7:AC7">
-    <cfRule type="containsText" dxfId="54" priority="103" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",AB7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="104" operator="containsText" text="完成">
-      <formula>NOT(ISERROR(SEARCH("完成",AB7)))</formula>
+  <conditionalFormatting sqref="W2:W11">
+    <cfRule type="cellIs" dxfId="59" priority="119" operator="equal">
+      <formula>"已发送WES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="120" operator="equal">
+      <formula>"已邮寄"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="121" operator="equal">
+      <formula>"已上传"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB8:AC8">
-    <cfRule type="containsText" dxfId="52" priority="101" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",AB8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="102" operator="containsText" text="完成">
-      <formula>NOT(ISERROR(SEARCH("完成",AB8)))</formula>
+  <conditionalFormatting sqref="V12:W12">
+    <cfRule type="containsText" dxfId="56" priority="111" operator="containsText" text="已撤回/放弃">
+      <formula>NOT(ISERROR(SEARCH("已撤回/放弃",V12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="112" operator="containsText" text="已拒绝">
+      <formula>NOT(ISERROR(SEARCH("已拒绝",V12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="113" operator="containsText" text="已录取">
+      <formula>NOT(ISERROR(SEARCH("已录取",V12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="114" operator="containsText" text="已完成未提交">
+      <formula>NOT(ISERROR(SEARCH("已完成未提交",V12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="115" operator="containsText" text="已提交">
+      <formula>NOT(ISERROR(SEARCH("已提交",V12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="116" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",V12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB9:AC10">
-    <cfRule type="containsText" dxfId="50" priority="99" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",AB9)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="100" operator="containsText" text="完成">
-      <formula>NOT(ISERROR(SEARCH("完成",AB9)))</formula>
+  <conditionalFormatting sqref="AB12:AC12">
+    <cfRule type="containsText" dxfId="50" priority="109" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",AB12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="110" operator="containsText" text="完成">
+      <formula>NOT(ISERROR(SEARCH("完成",AB12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y2:AA13">
-    <cfRule type="cellIs" dxfId="48" priority="91" operator="equal">
+  <conditionalFormatting sqref="Y12:AA12">
+    <cfRule type="cellIs" dxfId="48" priority="103" operator="equal">
       <formula>"已提交"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="104" operator="equal">
       <formula>"已发送"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="105" operator="equal">
       <formula>"未发送"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="95" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",Y2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="96" operator="containsText" text="完成">
-      <formula>NOT(ISERROR(SEARCH("完成",Y2)))</formula>
+    <cfRule type="containsText" dxfId="45" priority="107" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",Y12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="108" operator="containsText" text="完成">
+      <formula>NOT(ISERROR(SEARCH("完成",Y12)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AC13">
-    <cfRule type="cellIs" dxfId="43" priority="94" operator="equal">
+  <conditionalFormatting sqref="AB12:AC12">
+    <cfRule type="cellIs" dxfId="43" priority="106" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V13">
-    <cfRule type="cellIs" dxfId="42" priority="84" operator="equal">
+  <conditionalFormatting sqref="V12">
+    <cfRule type="cellIs" dxfId="42" priority="101" operator="equal">
       <formula>"已录取"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="102" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W2:W13">
-    <cfRule type="cellIs" dxfId="40" priority="81" operator="equal">
+  <conditionalFormatting sqref="W12">
+    <cfRule type="cellIs" dxfId="40" priority="98" operator="equal">
       <formula>"已发送WES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="99" operator="equal">
       <formula>"已邮寄"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="100" operator="equal">
+      <formula>"已上传"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V13:W13">
+    <cfRule type="containsText" dxfId="37" priority="92" operator="containsText" text="已撤回/放弃">
+      <formula>NOT(ISERROR(SEARCH("已撤回/放弃",V13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="93" operator="containsText" text="已拒绝">
+      <formula>NOT(ISERROR(SEARCH("已拒绝",V13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="94" operator="containsText" text="已录取">
+      <formula>NOT(ISERROR(SEARCH("已录取",V13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="95" operator="containsText" text="已完成未提交">
+      <formula>NOT(ISERROR(SEARCH("已完成未提交",V13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="96" operator="containsText" text="已提交">
+      <formula>NOT(ISERROR(SEARCH("已提交",V13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="97" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",V13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB13:AC13">
+    <cfRule type="containsText" dxfId="31" priority="90" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",AB13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="91" operator="containsText" text="完成">
+      <formula>NOT(ISERROR(SEARCH("完成",AB13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y13:AA13">
+    <cfRule type="cellIs" dxfId="29" priority="84" operator="equal">
+      <formula>"已提交"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="85" operator="equal">
+      <formula>"已发送"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="86" operator="equal">
+      <formula>"未发送"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="88" operator="containsText" text="未完成">
+      <formula>NOT(ISERROR(SEARCH("未完成",Y13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="89" operator="containsText" text="完成">
+      <formula>NOT(ISERROR(SEARCH("完成",Y13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB13:AC13">
+    <cfRule type="cellIs" dxfId="24" priority="87" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V13">
+    <cfRule type="cellIs" dxfId="23" priority="82" operator="equal">
+      <formula>"已录取"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="83" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W13">
+    <cfRule type="cellIs" dxfId="21" priority="79" operator="equal">
+      <formula>"已发送WES"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="80" operator="equal">
+      <formula>"已邮寄"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="81" operator="equal">
       <formula>"已上传"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14:W14">
-    <cfRule type="containsText" dxfId="37" priority="73" operator="containsText" text="已撤回/放弃">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="已撤回/放弃">
       <formula>NOT(ISERROR(SEARCH("已撤回/放弃",V14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="74" operator="containsText" text="已拒绝">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="已拒绝">
       <formula>NOT(ISERROR(SEARCH("已拒绝",V14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="75" operator="containsText" text="已录取">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="已录取">
       <formula>NOT(ISERROR(SEARCH("已录取",V14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="76" operator="containsText" text="已完成未提交">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="已完成未提交">
       <formula>NOT(ISERROR(SEARCH("已完成未提交",V14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="77" operator="containsText" text="已提交">
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="已提交">
       <formula>NOT(ISERROR(SEARCH("已提交",V14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="78" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="13" priority="19" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",V14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB14:AC14">
-    <cfRule type="containsText" dxfId="31" priority="71" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="12" priority="12" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",AB14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="72" operator="containsText" text="完成">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="完成">
       <formula>NOT(ISERROR(SEARCH("完成",AB14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y14:AA14">
-    <cfRule type="cellIs" dxfId="29" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"已提交"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"已发送"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"未发送"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="69" operator="containsText" text="未完成">
+    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="未完成">
       <formula>NOT(ISERROR(SEARCH("未完成",Y14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="70" operator="containsText" text="完成">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="完成">
       <formula>NOT(ISERROR(SEARCH("完成",Y14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB14:AC14">
-    <cfRule type="cellIs" dxfId="24" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V14">
-    <cfRule type="cellIs" dxfId="23" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"已录取"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W14">
-    <cfRule type="cellIs" dxfId="21" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"已发送WES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"已邮寄"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="62" operator="equal">
-      <formula>"已上传"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V15:W15">
-    <cfRule type="containsText" dxfId="18" priority="54" operator="containsText" text="已撤回/放弃">
-      <formula>NOT(ISERROR(SEARCH("已撤回/放弃",V15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="55" operator="containsText" text="已拒绝">
-      <formula>NOT(ISERROR(SEARCH("已拒绝",V15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="56" operator="containsText" text="已录取">
-      <formula>NOT(ISERROR(SEARCH("已录取",V15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="57" operator="containsText" text="已完成未提交">
-      <formula>NOT(ISERROR(SEARCH("已完成未提交",V15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="58" operator="containsText" text="已提交">
-      <formula>NOT(ISERROR(SEARCH("已提交",V15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="59" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",V15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB15:AC15">
-    <cfRule type="containsText" dxfId="12" priority="52" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",AB15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="53" operator="containsText" text="完成">
-      <formula>NOT(ISERROR(SEARCH("完成",AB15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y15:AA15">
-    <cfRule type="cellIs" dxfId="10" priority="46" operator="equal">
-      <formula>"已提交"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="47" operator="equal">
-      <formula>"已发送"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="48" operator="equal">
-      <formula>"未发送"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="50" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",Y15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="51" operator="containsText" text="完成">
-      <formula>NOT(ISERROR(SEARCH("完成",Y15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB15:AC15">
-    <cfRule type="cellIs" dxfId="5" priority="49" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V15">
-    <cfRule type="cellIs" dxfId="4" priority="44" operator="equal">
-      <formula>"已录取"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="45" operator="equal">
-      <formula>"未完成"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W15">
-    <cfRule type="cellIs" dxfId="2" priority="41" operator="equal">
-      <formula>"已发送WES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="42" operator="equal">
-      <formula>"已邮寄"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"已上传"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W15" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"已上传,已邮寄,未完成,已发送WES"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AC15" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AC14" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"完成,未完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V15" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V14" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"未完成,已完成未提交,已提交,已录取,已拒绝,已放弃"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3273,35 +3640,55 @@
     <hyperlink ref="I4:I5" r:id="rId1" display="vader_wenbo_zhao@163.com" xr:uid="{6E56B34F-5A59-784C-8292-C9105E4BE223}"/>
     <hyperlink ref="I6" r:id="rId2" xr:uid="{D5600D2F-9CC4-4C47-8546-A7CEA7C73334}"/>
     <hyperlink ref="I9" r:id="rId3" xr:uid="{5BA6A6F5-5C1C-B64C-BDDD-62C8EE2DF246}"/>
-    <hyperlink ref="I12" r:id="rId4" xr:uid="{C1A541B4-640B-1846-8EF9-C8A6BECC0C5E}"/>
-    <hyperlink ref="I15" r:id="rId5" xr:uid="{221A4FBE-36F1-C94D-9964-CF0F6AB30D53}"/>
+    <hyperlink ref="I10" r:id="rId4" xr:uid="{C1A541B4-640B-1846-8EF9-C8A6BECC0C5E}"/>
+    <hyperlink ref="I13" r:id="rId5" xr:uid="{221A4FBE-36F1-C94D-9964-CF0F6AB30D53}"/>
     <hyperlink ref="I7:I8" r:id="rId6" display="vader_wenbo_zhao@163.com" xr:uid="{CE39EF33-8864-024F-AFC4-9AB2F942B0BE}"/>
-    <hyperlink ref="I10" r:id="rId7" xr:uid="{52D58150-2703-8D43-9FCB-028CA3F3A36C}"/>
-    <hyperlink ref="I13:I14" r:id="rId8" display="vader_wenbo_zhao@163.com" xr:uid="{A03C5D43-3E49-6C4F-8780-555665E6BA2F}"/>
-    <hyperlink ref="E4" r:id="rId9" xr:uid="{9C2CA1A9-E953-A54F-A5BD-41AC3AD8E86F}"/>
-    <hyperlink ref="F4" r:id="rId10" xr:uid="{9A432B00-965C-AB42-B67C-51418D5122A5}"/>
-    <hyperlink ref="G4" r:id="rId11" xr:uid="{8F4C338D-1377-DE4F-828B-3D44253E2073}"/>
-    <hyperlink ref="H4" r:id="rId12" xr:uid="{8E3C88F2-9AF5-D64F-8AC5-F66288C8FB30}"/>
-    <hyperlink ref="E6" r:id="rId13" xr:uid="{0F8FCD94-3B62-3246-959B-2B005463D40D}"/>
-    <hyperlink ref="F6" r:id="rId14" location="masters" xr:uid="{B8821E72-9506-A440-986E-E4C65B733324}"/>
-    <hyperlink ref="G6" r:id="rId15" xr:uid="{16BDE2BD-10EB-0D43-AE55-6924BDD24C5C}"/>
-    <hyperlink ref="H6" r:id="rId16" xr:uid="{7A35DB9B-39B9-B94E-8E0F-F52A0BEE13CC}"/>
-    <hyperlink ref="F5" r:id="rId17" xr:uid="{EB72BB34-B9CF-1246-962B-EADDB7181B1A}"/>
-    <hyperlink ref="G5" r:id="rId18" xr:uid="{D829DA85-3865-5A45-8631-50C912F52909}"/>
-    <hyperlink ref="H5" r:id="rId19" xr:uid="{E3ADED62-CF2D-0B4A-8EE8-C5591694CD7B}"/>
-    <hyperlink ref="F7" r:id="rId20" xr:uid="{20280955-E01F-B84E-BC64-21DBF9BDAC90}"/>
-    <hyperlink ref="E7" r:id="rId21" location="computer-science-cs75" xr:uid="{B8DC731B-C11B-9F40-9DEC-8F9327DF9FD3}"/>
-    <hyperlink ref="G7" r:id="rId22" location="grerequired" xr:uid="{F814858C-5886-B74F-BD77-C19B6A9BE747}"/>
-    <hyperlink ref="H7" r:id="rId23" xr:uid="{F3E12688-2A5D-FA41-B248-C27EACBC690E}"/>
-    <hyperlink ref="E5" r:id="rId24" xr:uid="{ABA11A09-3274-1A42-BD5A-A9820A218532}"/>
-    <hyperlink ref="E3" r:id="rId25" xr:uid="{DA7527E5-9E46-A34D-BEAB-B773214DA848}"/>
-    <hyperlink ref="F3" r:id="rId26" xr:uid="{33E5CADA-C993-4241-81AE-4A65EEFC20BB}"/>
-    <hyperlink ref="G3" r:id="rId27" xr:uid="{88C01A3E-0D3B-E846-891A-CC0E7937F8A2}"/>
-    <hyperlink ref="I3" r:id="rId28" xr:uid="{FBF573D1-7C74-704F-96CD-6F30529886E7}"/>
-    <hyperlink ref="H3" r:id="rId29" xr:uid="{00A3326F-ACEB-5E41-9193-1EBEE4188C43}"/>
+    <hyperlink ref="I11:I12" r:id="rId7" display="vader_wenbo_zhao@163.com" xr:uid="{A03C5D43-3E49-6C4F-8780-555665E6BA2F}"/>
+    <hyperlink ref="E4" r:id="rId8" xr:uid="{9C2CA1A9-E953-A54F-A5BD-41AC3AD8E86F}"/>
+    <hyperlink ref="F4" r:id="rId9" xr:uid="{9A432B00-965C-AB42-B67C-51418D5122A5}"/>
+    <hyperlink ref="G4" r:id="rId10" xr:uid="{8F4C338D-1377-DE4F-828B-3D44253E2073}"/>
+    <hyperlink ref="H4" r:id="rId11" xr:uid="{8E3C88F2-9AF5-D64F-8AC5-F66288C8FB30}"/>
+    <hyperlink ref="E6" r:id="rId12" xr:uid="{0F8FCD94-3B62-3246-959B-2B005463D40D}"/>
+    <hyperlink ref="F6" r:id="rId13" location="masters" xr:uid="{B8821E72-9506-A440-986E-E4C65B733324}"/>
+    <hyperlink ref="G6" r:id="rId14" xr:uid="{16BDE2BD-10EB-0D43-AE55-6924BDD24C5C}"/>
+    <hyperlink ref="H6" r:id="rId15" xr:uid="{7A35DB9B-39B9-B94E-8E0F-F52A0BEE13CC}"/>
+    <hyperlink ref="F5" r:id="rId16" xr:uid="{EB72BB34-B9CF-1246-962B-EADDB7181B1A}"/>
+    <hyperlink ref="G5" r:id="rId17" xr:uid="{D829DA85-3865-5A45-8631-50C912F52909}"/>
+    <hyperlink ref="H5" r:id="rId18" xr:uid="{E3ADED62-CF2D-0B4A-8EE8-C5591694CD7B}"/>
+    <hyperlink ref="F7" r:id="rId19" xr:uid="{20280955-E01F-B84E-BC64-21DBF9BDAC90}"/>
+    <hyperlink ref="E7" r:id="rId20" location="computer-science-cs75" xr:uid="{B8DC731B-C11B-9F40-9DEC-8F9327DF9FD3}"/>
+    <hyperlink ref="G7" r:id="rId21" location="grerequired" xr:uid="{F814858C-5886-B74F-BD77-C19B6A9BE747}"/>
+    <hyperlink ref="H7" r:id="rId22" xr:uid="{F3E12688-2A5D-FA41-B248-C27EACBC690E}"/>
+    <hyperlink ref="E5" r:id="rId23" xr:uid="{ABA11A09-3274-1A42-BD5A-A9820A218532}"/>
+    <hyperlink ref="E3" r:id="rId24" xr:uid="{DA7527E5-9E46-A34D-BEAB-B773214DA848}"/>
+    <hyperlink ref="F3" r:id="rId25" xr:uid="{33E5CADA-C993-4241-81AE-4A65EEFC20BB}"/>
+    <hyperlink ref="G3" r:id="rId26" xr:uid="{88C01A3E-0D3B-E846-891A-CC0E7937F8A2}"/>
+    <hyperlink ref="I3" r:id="rId27" xr:uid="{FBF573D1-7C74-704F-96CD-6F30529886E7}"/>
+    <hyperlink ref="H3" r:id="rId28" xr:uid="{00A3326F-ACEB-5E41-9193-1EBEE4188C43}"/>
+    <hyperlink ref="E8" r:id="rId29" xr:uid="{642F03E4-7DBD-4F45-92D4-8DE95D4F93EF}"/>
+    <hyperlink ref="G8" r:id="rId30" xr:uid="{BE65CE20-DF3C-AE4F-A6C2-184C6E8337B2}"/>
+    <hyperlink ref="H8" r:id="rId31" xr:uid="{30AF475D-F1EF-0F4B-BBF4-8B40C254D6C2}"/>
+    <hyperlink ref="I14" r:id="rId32" xr:uid="{59E97A3A-2194-5841-91FD-F4DBCE98BA6F}"/>
+    <hyperlink ref="H9" r:id="rId33" xr:uid="{591B7222-5477-E148-ABD9-FF20168E7657}"/>
+    <hyperlink ref="E9" r:id="rId34" xr:uid="{68AD0283-000E-1543-8C12-9982492CE858}"/>
+    <hyperlink ref="F8" r:id="rId35" xr:uid="{6C92DD2A-E5A3-8548-A44E-D1C63B3B1157}"/>
+    <hyperlink ref="G9" r:id="rId36" xr:uid="{597A4B13-DC10-984D-8F0B-C7E55553D416}"/>
+    <hyperlink ref="F9" r:id="rId37" xr:uid="{47293E41-B350-3B46-8C4D-E84E5723B60A}"/>
+    <hyperlink ref="E10" r:id="rId38" xr:uid="{9E6B7615-1A63-3541-98FF-B2C298891114}"/>
+    <hyperlink ref="F10" r:id="rId39" xr:uid="{D1F4DB91-B060-0F40-8213-B4D96C0CD60C}"/>
+    <hyperlink ref="G10" r:id="rId40" xr:uid="{C185517C-0C6A-F248-AB9C-8E769857CC97}"/>
+    <hyperlink ref="H10" r:id="rId41" xr:uid="{0E49D778-1419-3A42-B937-0135BE140612}"/>
+    <hyperlink ref="E11" r:id="rId42" xr:uid="{9EC4233D-2824-A744-B3A4-56E54B82BA4A}"/>
+    <hyperlink ref="H11" r:id="rId43" xr:uid="{AC06A16C-CC15-C84D-86E0-5CBE81C52D67}"/>
+    <hyperlink ref="F11" r:id="rId44" xr:uid="{4DBDA220-0094-CA4D-9450-D0D468C5CB97}"/>
+    <hyperlink ref="E12" r:id="rId45" xr:uid="{0D144571-55A3-E94F-8F46-D1363888B2BE}"/>
+    <hyperlink ref="F12" r:id="rId46" xr:uid="{CFEEBD42-A2E5-0A41-A870-2B0EE39C5C11}"/>
+    <hyperlink ref="H12" r:id="rId47" xr:uid="{834CC7B7-2BE6-0541-AC3C-E62BE015D00E}"/>
+    <hyperlink ref="G12" r:id="rId48" location="fee" xr:uid="{711839E3-8CFA-7348-85D5-110101ADF1F1}"/>
+    <hyperlink ref="G11" r:id="rId49" xr:uid="{F504B719-2B56-5842-9046-5B0F622B3B1F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId50"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -3309,7 +3696,7 @@
           <x14:formula1>
             <xm:f>申请状态!$B$1:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>Y2:AA15</xm:sqref>
+          <xm:sqref>Y2:AA14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
